--- a/Alumni/Excel/Question.xlsx
+++ b/Alumni/Excel/Question.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>单据名称</t>
   </si>
@@ -80,6 +80,22 @@
   </si>
   <si>
     <t>填写问卷时间</t>
+  </si>
+  <si>
+    <t>是否在G12从康桥毕业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱地址</t>
+  </si>
+  <si>
+    <t>微信账号</t>
+  </si>
+  <si>
+    <t>电话号码</t>
+  </si>
+  <si>
+    <t>是否愿意加入康桥校友会</t>
   </si>
 </sst>
 </file>
@@ -420,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,23 +448,25 @@
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="28.125" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="20.125" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="25.375" customWidth="1"/>
-    <col min="14" max="14" width="18.125" customWidth="1"/>
-    <col min="15" max="15" width="19.125" customWidth="1"/>
-    <col min="16" max="16" width="20.25" customWidth="1"/>
-    <col min="17" max="17" width="18.5" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
-    <col min="20" max="20" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
+    <col min="6" max="6" width="28.125" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="25.375" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="19.125" customWidth="1"/>
+    <col min="17" max="17" width="20.25" customWidth="1"/>
+    <col min="18" max="18" width="18.5" customWidth="1"/>
+    <col min="19" max="22" width="14.125" customWidth="1"/>
+    <col min="23" max="23" width="24.125" customWidth="1"/>
+    <col min="25" max="25" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -462,56 +480,71 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="T2" s="1"/>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
